--- a/data/trans_orig/P32D_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P32D_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDD483D6-CC98-4B63-A461-77A82A630726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42285B1F-AF59-441A-87CA-CDEAB72ADD82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{22F5C191-8C96-4B7D-A9A6-6F18A509C095}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D7F32214-E41F-4766-B648-764D6987541C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="537">
   <si>
     <t>Población según si en los últimos 12 meses ha tomado 6/5 (Hombre/Mujer) o más bebidas estándar en una misma ocasión en 2023 (Tasa respuesta: 31,79%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>57,15%</t>
   </si>
   <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
   </si>
   <si>
     <t>84,15%</t>
   </si>
   <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
   </si>
   <si>
     <t>66,73%</t>
   </si>
   <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
   </si>
   <si>
     <t>No en los últimos 12 meses</t>
@@ -104,1522 +104,1546 @@
     <t>31,83%</t>
   </si>
   <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
   </si>
   <si>
     <t>11,76%</t>
   </si>
   <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>Menos de una vez al mes</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>Una vez al mes</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>De 2 a 3 días en un mes</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>De 1 a 2 días por semana</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>De 3 a 4 días por semana</t>
+  </si>
+  <si>
+    <t>De 5 a 6 días por semana</t>
+  </si>
+  <si>
+    <t>A diario o casi a diario</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
     <t>7,26%</t>
   </si>
   <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>Menos de una vez al mes</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>Una vez al mes</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
   </si>
   <si>
     <t>4,53%</t>
   </si>
   <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>De 2 a 3 días en un mes</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>De 1 a 2 días por semana</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>De 3 a 4 días por semana</t>
-  </si>
-  <si>
-    <t>De 5 a 6 días por semana</t>
-  </si>
-  <si>
-    <t>A diario o casi a diario</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
   </si>
   <si>
     <t>1,93%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
   </si>
   <si>
     <t>1,55%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -2034,7 +2058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A673FA9-C88D-4B37-9EB6-A4B4229C0315}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10740264-5D5C-4E7A-9034-952F8CCBDD80}">
   <dimension ref="A1:Q94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2880,7 +2904,7 @@
         <v>109</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -2889,13 +2913,13 @@
         <v>1207</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -2904,10 +2928,10 @@
         <v>6322</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>114</v>
@@ -3386,13 +3410,13 @@
         <v>6314</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -3401,13 +3425,13 @@
         <v>1019</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
@@ -3416,13 +3440,13 @@
         <v>7333</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,13 +3461,13 @@
         <v>4228</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -3458,7 +3482,7 @@
         <v>35</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -3467,13 +3491,13 @@
         <v>4228</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3488,13 +3512,13 @@
         <v>859</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -3509,7 +3533,7 @@
         <v>35</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -3518,13 +3542,13 @@
         <v>859</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3539,13 +3563,13 @@
         <v>929</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3560,7 +3584,7 @@
         <v>35</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -3569,13 +3593,13 @@
         <v>929</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3590,13 +3614,13 @@
         <v>2958</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>184</v>
+        <v>53</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>48</v>
+        <v>181</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3611,7 +3635,7 @@
         <v>35</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -3620,13 +3644,13 @@
         <v>2958</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,7 +3706,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3694,13 +3718,13 @@
         <v>28290</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H34" s="7">
         <v>79</v>
@@ -3709,13 +3733,13 @@
         <v>48832</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="M34" s="7">
         <v>102</v>
@@ -3724,13 +3748,13 @@
         <v>77122</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,13 +3769,13 @@
         <v>87234</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H35" s="7">
         <v>67</v>
@@ -3760,13 +3784,13 @@
         <v>50072</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M35" s="7">
         <v>153</v>
@@ -3775,13 +3799,13 @@
         <v>137306</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,13 +3820,13 @@
         <v>42247</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H36" s="7">
         <v>16</v>
@@ -3811,13 +3835,13 @@
         <v>18856</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M36" s="7">
         <v>48</v>
@@ -3826,13 +3850,13 @@
         <v>61103</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,13 +3871,13 @@
         <v>11718</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H37" s="7">
         <v>5</v>
@@ -3862,13 +3886,13 @@
         <v>4503</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>162</v>
+        <v>101</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M37" s="7">
         <v>14</v>
@@ -3877,13 +3901,13 @@
         <v>16221</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,13 +3922,13 @@
         <v>3452</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H38" s="7">
         <v>6</v>
@@ -3913,13 +3937,13 @@
         <v>6864</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M38" s="7">
         <v>9</v>
@@ -3928,13 +3952,13 @@
         <v>10317</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,13 +3973,13 @@
         <v>5478</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H39" s="7">
         <v>4</v>
@@ -3964,13 +3988,13 @@
         <v>3255</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K39" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="L39" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M39" s="7">
         <v>7</v>
@@ -3979,13 +4003,13 @@
         <v>8734</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,7 +4030,7 @@
         <v>35</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>239</v>
+        <v>162</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -4021,7 +4045,7 @@
         <v>35</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -4057,7 +4081,7 @@
         <v>34</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -4072,7 +4096,7 @@
         <v>35</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M41" s="7">
         <v>1</v>
@@ -4081,13 +4105,13 @@
         <v>757</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>58</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4102,13 +4126,13 @@
         <v>1612</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H42" s="7">
         <v>2</v>
@@ -4117,13 +4141,13 @@
         <v>1002</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M42" s="7">
         <v>4</v>
@@ -4132,13 +4156,13 @@
         <v>2614</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4194,7 +4218,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>10</v>
@@ -4206,13 +4230,13 @@
         <v>3449</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H44" s="7">
         <v>2</v>
@@ -4221,13 +4245,13 @@
         <v>2238</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M44" s="7">
         <v>7</v>
@@ -4236,13 +4260,13 @@
         <v>5687</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4257,13 +4281,13 @@
         <v>18584</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H45" s="7">
         <v>9</v>
@@ -4272,13 +4296,13 @@
         <v>4275</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>261</v>
+        <v>81</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M45" s="7">
         <v>33</v>
@@ -4287,13 +4311,13 @@
         <v>22859</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,13 +4332,13 @@
         <v>7693</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H46" s="7">
         <v>3</v>
@@ -4323,13 +4347,13 @@
         <v>1451</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>272</v>
+        <v>87</v>
       </c>
       <c r="M46" s="7">
         <v>14</v>
@@ -4338,13 +4362,13 @@
         <v>9144</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,13 +4383,13 @@
         <v>1970</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>276</v>
+        <v>43</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="H47" s="7">
         <v>3</v>
@@ -4374,13 +4398,13 @@
         <v>1250</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="M47" s="7">
         <v>6</v>
@@ -4389,13 +4413,13 @@
         <v>3220</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>25</v>
+        <v>277</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>187</v>
+        <v>278</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,13 +4434,13 @@
         <v>1413</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>282</v>
+        <v>48</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H48" s="7">
         <v>1</v>
@@ -4425,13 +4449,13 @@
         <v>159</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>161</v>
+        <v>282</v>
       </c>
       <c r="M48" s="7">
         <v>3</v>
@@ -4440,13 +4464,13 @@
         <v>1571</v>
       </c>
       <c r="O48" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q48" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P48" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,7 +4491,7 @@
         <v>35</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H49" s="7">
         <v>1</v>
@@ -4476,13 +4500,13 @@
         <v>424</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="M49" s="7">
         <v>1</v>
@@ -4491,13 +4515,13 @@
         <v>424</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,7 +4542,7 @@
         <v>35</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -4533,7 +4557,7 @@
         <v>35</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -4548,7 +4572,7 @@
         <v>35</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,7 +4593,7 @@
         <v>35</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -4584,7 +4608,7 @@
         <v>35</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M51" s="7">
         <v>0</v>
@@ -4599,7 +4623,7 @@
         <v>35</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4614,13 +4638,13 @@
         <v>1422</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -4635,7 +4659,7 @@
         <v>35</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M52" s="7">
         <v>1</v>
@@ -4644,13 +4668,13 @@
         <v>1421</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,7 +4730,7 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>10</v>
@@ -4718,13 +4742,13 @@
         <v>20551</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H54" s="7">
         <v>53</v>
@@ -4733,13 +4757,13 @@
         <v>34615</v>
       </c>
       <c r="J54" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L54" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M54" s="7">
         <v>86</v>
@@ -4748,13 +4772,13 @@
         <v>55166</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P54" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="P54" s="7" t="s">
+      <c r="Q54" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,7 +4895,7 @@
         <v>10977</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>324</v>
@@ -4889,10 +4913,10 @@
         <v>326</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>44</v>
+        <v>327</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M57" s="7">
         <v>15</v>
@@ -4901,10 +4925,10 @@
         <v>15282</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>329</v>
+        <v>122</v>
       </c>
       <c r="Q57" s="7" t="s">
         <v>330</v>
@@ -4988,13 +5012,13 @@
         <v>1042</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>168</v>
+        <v>342</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>43</v>
+        <v>343</v>
       </c>
       <c r="M59" s="7">
         <v>8</v>
@@ -5003,13 +5027,13 @@
         <v>10303</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -5024,13 +5048,13 @@
         <v>3202</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>182</v>
+        <v>347</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>114</v>
+        <v>349</v>
       </c>
       <c r="H60" s="7">
         <v>2</v>
@@ -5039,13 +5063,13 @@
         <v>1498</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>346</v>
+        <v>239</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>226</v>
+        <v>350</v>
       </c>
       <c r="M60" s="7">
         <v>7</v>
@@ -5054,13 +5078,13 @@
         <v>4700</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>244</v>
+        <v>352</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,7 +5120,7 @@
         <v>35</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="M61" s="7">
         <v>0</v>
@@ -5111,7 +5135,7 @@
         <v>35</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>350</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,13 +5150,13 @@
         <v>4907</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>351</v>
+        <v>164</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -5147,7 +5171,7 @@
         <v>35</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="M62" s="7">
         <v>6</v>
@@ -5156,13 +5180,13 @@
         <v>4907</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>285</v>
+        <v>357</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -5218,7 +5242,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>10</v>
@@ -5230,13 +5254,13 @@
         <v>73348</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="H64" s="7">
         <v>117</v>
@@ -5245,13 +5269,13 @@
         <v>202054</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M64" s="7">
         <v>190</v>
@@ -5260,13 +5284,13 @@
         <v>275402</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>80</v>
+        <v>366</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,13 +5305,13 @@
         <v>90498</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H65" s="7">
         <v>70</v>
@@ -5296,13 +5320,13 @@
         <v>47294</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="M65" s="7">
         <v>160</v>
@@ -5311,13 +5335,13 @@
         <v>137792</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5332,13 +5356,13 @@
         <v>71948</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="H66" s="7">
         <v>59</v>
@@ -5347,13 +5371,13 @@
         <v>40304</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="M66" s="7">
         <v>118</v>
@@ -5362,13 +5386,13 @@
         <v>112251</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -5383,13 +5407,13 @@
         <v>34910</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H67" s="7">
         <v>20</v>
@@ -5398,13 +5422,13 @@
         <v>12958</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>168</v>
+        <v>353</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="M67" s="7">
         <v>49</v>
@@ -5413,13 +5437,13 @@
         <v>47867</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -5434,13 +5458,13 @@
         <v>15682</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>217</v>
+        <v>392</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="H68" s="7">
         <v>8</v>
@@ -5449,13 +5473,13 @@
         <v>6490</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>390</v>
+        <v>121</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>391</v>
+        <v>167</v>
       </c>
       <c r="M68" s="7">
         <v>25</v>
@@ -5464,13 +5488,13 @@
         <v>22172</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>324</v>
+        <v>395</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>393</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5485,13 +5509,13 @@
         <v>11792</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="H69" s="7">
         <v>8</v>
@@ -5500,13 +5524,13 @@
         <v>8673</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>68</v>
+        <v>400</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>397</v>
+        <v>109</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="M69" s="7">
         <v>20</v>
@@ -5515,13 +5539,13 @@
         <v>20466</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5542,7 +5566,7 @@
         <v>35</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>47</v>
+        <v>403</v>
       </c>
       <c r="H70" s="7">
         <v>3</v>
@@ -5551,13 +5575,13 @@
         <v>1467</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="K70" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="M70" s="7">
         <v>3</v>
@@ -5566,13 +5590,13 @@
         <v>1467</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>47</v>
+        <v>242</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5587,13 +5611,13 @@
         <v>3248</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
@@ -5608,7 +5632,7 @@
         <v>35</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>47</v>
+        <v>403</v>
       </c>
       <c r="M71" s="7">
         <v>3</v>
@@ -5617,13 +5641,13 @@
         <v>3248</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>116</v>
+        <v>408</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>120</v>
+        <v>268</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5638,13 +5662,13 @@
         <v>3187</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>405</v>
+        <v>178</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
@@ -5659,7 +5683,7 @@
         <v>35</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>47</v>
+        <v>403</v>
       </c>
       <c r="M72" s="7">
         <v>4</v>
@@ -5668,13 +5692,13 @@
         <v>3187</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5730,7 +5754,7 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>10</v>
@@ -5742,13 +5766,13 @@
         <v>17655</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>411</v>
+        <v>241</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="H74" s="7">
         <v>7</v>
@@ -5757,13 +5781,13 @@
         <v>6038</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="M74" s="7">
         <v>22</v>
@@ -5772,13 +5796,13 @@
         <v>23693</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>416</v>
+        <v>101</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5793,13 +5817,13 @@
         <v>128334</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H75" s="7">
         <v>71</v>
@@ -5808,13 +5832,13 @@
         <v>63204</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="M75" s="7">
         <v>198</v>
@@ -5823,13 +5847,13 @@
         <v>191538</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -5844,13 +5868,13 @@
         <v>104404</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="H76" s="7">
         <v>34</v>
@@ -5859,13 +5883,13 @@
         <v>28547</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>382</v>
+        <v>433</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="M76" s="7">
         <v>131</v>
@@ -5874,13 +5898,13 @@
         <v>132951</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -5895,13 +5919,13 @@
         <v>24589</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>238</v>
+        <v>437</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="H77" s="7">
         <v>5</v>
@@ -5910,13 +5934,13 @@
         <v>3862</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="M77" s="7">
         <v>28</v>
@@ -5925,13 +5949,13 @@
         <v>28451</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>441</v>
+        <v>415</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -5946,13 +5970,13 @@
         <v>22996</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>443</v>
+        <v>114</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H78" s="7">
         <v>6</v>
@@ -5961,13 +5985,13 @@
         <v>5417</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M78" s="7">
         <v>22</v>
@@ -5976,13 +6000,13 @@
         <v>28413</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>449</v>
+        <v>387</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -5997,10 +6021,10 @@
         <v>18545</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>452</v>
+        <v>155</v>
       </c>
       <c r="G79" s="7" t="s">
         <v>453</v>
@@ -6015,10 +6039,10 @@
         <v>454</v>
       </c>
       <c r="K79" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L79" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="L79" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="M79" s="7">
         <v>24</v>
@@ -6027,13 +6051,13 @@
         <v>26502</v>
       </c>
       <c r="O79" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="P79" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="P79" s="7" t="s">
+      <c r="Q79" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="Q79" s="7" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -6054,7 +6078,7 @@
         <v>34</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H80" s="7">
         <v>1</v>
@@ -6063,13 +6087,13 @@
         <v>1558</v>
       </c>
       <c r="J80" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L80" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="K80" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L80" s="7" t="s">
-        <v>462</v>
       </c>
       <c r="M80" s="7">
         <v>3</v>
@@ -6078,13 +6102,13 @@
         <v>3486</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>463</v>
+        <v>356</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>465</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -6105,7 +6129,7 @@
         <v>34</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>466</v>
+        <v>184</v>
       </c>
       <c r="H81" s="7">
         <v>0</v>
@@ -6120,7 +6144,7 @@
         <v>35</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="M81" s="7">
         <v>1</v>
@@ -6129,13 +6153,13 @@
         <v>1796</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="P81" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -6150,13 +6174,13 @@
         <v>4947</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>184</v>
+        <v>467</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H82" s="7">
         <v>5</v>
@@ -6165,13 +6189,13 @@
         <v>5728</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="M82" s="7">
         <v>9</v>
@@ -6180,13 +6204,13 @@
         <v>10676</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -6254,13 +6278,13 @@
         <v>332365</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>74</v>
+        <v>475</v>
       </c>
       <c r="H84" s="7">
         <v>521</v>
@@ -6269,13 +6293,13 @@
         <v>471221</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="M84" s="7">
         <v>859</v>
@@ -6284,13 +6308,13 @@
         <v>803586</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="P84" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -6305,13 +6329,13 @@
         <v>663446</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="H85" s="7">
         <v>396</v>
@@ -6320,13 +6344,13 @@
         <v>287385</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="M85" s="7">
         <v>1077</v>
@@ -6335,13 +6359,13 @@
         <v>950831</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="P85" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -6356,13 +6380,13 @@
         <v>343022</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="H86" s="7">
         <v>172</v>
@@ -6371,13 +6395,13 @@
         <v>141885</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="K86" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="M86" s="7">
         <v>487</v>
@@ -6386,13 +6410,13 @@
         <v>484907</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="P86" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -6407,13 +6431,13 @@
         <v>116129</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H87" s="7">
         <v>43</v>
@@ -6422,13 +6446,13 @@
         <v>31324</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>329</v>
+        <v>503</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>445</v>
+        <v>505</v>
       </c>
       <c r="M87" s="7">
         <v>143</v>
@@ -6437,13 +6461,13 @@
         <v>147453</v>
       </c>
       <c r="O87" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="P87" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="P87" s="7" t="s">
+      <c r="Q87" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="Q87" s="7" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
@@ -6458,13 +6482,13 @@
         <v>65450</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>436</v>
+        <v>509</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>509</v>
+        <v>165</v>
       </c>
       <c r="H88" s="7">
         <v>30</v>
@@ -6476,10 +6500,10 @@
         <v>510</v>
       </c>
       <c r="K88" s="7" t="s">
-        <v>113</v>
+        <v>511</v>
       </c>
       <c r="L88" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M88" s="7">
         <v>89</v>
@@ -6488,13 +6512,13 @@
         <v>92827</v>
       </c>
       <c r="O88" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="P88" s="7" t="s">
-        <v>236</v>
+        <v>410</v>
       </c>
       <c r="Q88" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
@@ -6509,13 +6533,13 @@
         <v>55375</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>251</v>
+        <v>515</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="H89" s="7">
         <v>26</v>
@@ -6524,13 +6548,13 @@
         <v>23191</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>516</v>
+        <v>174</v>
       </c>
       <c r="K89" s="7" t="s">
-        <v>467</v>
+        <v>518</v>
       </c>
       <c r="L89" s="7" t="s">
-        <v>517</v>
+        <v>344</v>
       </c>
       <c r="M89" s="7">
         <v>74</v>
@@ -6539,13 +6563,13 @@
         <v>78566</v>
       </c>
       <c r="O89" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="P89" s="7" t="s">
-        <v>465</v>
+        <v>520</v>
       </c>
       <c r="Q89" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
@@ -6560,13 +6584,13 @@
         <v>5989</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>184</v>
+        <v>522</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>463</v>
+        <v>524</v>
       </c>
       <c r="H90" s="7">
         <v>6</v>
@@ -6575,13 +6599,13 @@
         <v>4522</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="K90" s="7" t="s">
-        <v>464</v>
+        <v>525</v>
       </c>
       <c r="L90" s="7" t="s">
-        <v>521</v>
+        <v>441</v>
       </c>
       <c r="M90" s="7">
         <v>14</v>
@@ -6590,13 +6614,13 @@
         <v>10511</v>
       </c>
       <c r="O90" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="P90" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="Q90" s="7" t="s">
-        <v>56</v>
+        <v>527</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
@@ -6614,10 +6638,10 @@
         <v>121</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>67</v>
+        <v>240</v>
       </c>
       <c r="H91" s="7">
         <v>0</v>
@@ -6632,7 +6656,7 @@
         <v>35</v>
       </c>
       <c r="L91" s="7" t="s">
-        <v>464</v>
+        <v>523</v>
       </c>
       <c r="M91" s="7">
         <v>6</v>
@@ -6641,13 +6665,13 @@
         <v>6731</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="P91" s="7" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="Q91" s="7" t="s">
-        <v>69</v>
+        <v>530</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
@@ -6662,13 +6686,13 @@
         <v>20377</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>224</v>
+        <v>532</v>
       </c>
       <c r="H92" s="7">
         <v>7</v>
@@ -6677,13 +6701,13 @@
         <v>6731</v>
       </c>
       <c r="J92" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="K92" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="K92" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="L92" s="7" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="M92" s="7">
         <v>30</v>
@@ -6695,10 +6719,10 @@
         <v>50</v>
       </c>
       <c r="P92" s="7" t="s">
-        <v>56</v>
+        <v>533</v>
       </c>
       <c r="Q92" s="7" t="s">
-        <v>284</v>
+        <v>535</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,7 +6778,7 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P32D_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P32D_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42285B1F-AF59-441A-87CA-CDEAB72ADD82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{506668E3-4A66-4573-ABA6-A7F01620EB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D7F32214-E41F-4766-B648-764D6987541C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9E9557E8-42CB-4B59-9985-E78735DD1069}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -2058,7 +2058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10740264-5D5C-4E7A-9034-952F8CCBDD80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27E4A2C-E3BA-4DEA-BAD3-B01971C051A0}">
   <dimension ref="A1:Q94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P32D_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P32D_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{506668E3-4A66-4573-ABA6-A7F01620EB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1CE0B6A-3C75-44F8-A1C4-EECCB862B57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9E9557E8-42CB-4B59-9985-E78735DD1069}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5655F00F-9417-4466-90A1-7AAF10BB0D28}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="529">
   <si>
     <t>Población según si en los últimos 12 meses ha tomado 6/5 (Hombre/Mujer) o más bebidas estándar en una misma ocasión en 2023 (Tasa respuesta: 31,79%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>57,15%</t>
   </si>
   <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
   </si>
   <si>
     <t>84,15%</t>
   </si>
   <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
   </si>
   <si>
     <t>66,73%</t>
   </si>
   <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
   </si>
   <si>
     <t>No en los últimos 12 meses</t>
@@ -104,28 +104,28 @@
     <t>31,83%</t>
   </si>
   <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
   </si>
   <si>
     <t>11,76%</t>
   </si>
   <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
   </si>
   <si>
     <t>24,71%</t>
   </si>
   <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
   </si>
   <si>
     <t>Menos de una vez al mes</t>
@@ -134,10 +134,10 @@
     <t>7,4%</t>
   </si>
   <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -152,10 +152,10 @@
     <t>4,77%</t>
   </si>
   <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
   </si>
   <si>
     <t>Una vez al mes</t>
@@ -164,1486 +164,1462 @@
     <t>2,05%</t>
   </si>
   <si>
-    <t>0,44%</t>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>De 2 a 3 días en un mes</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>De 1 a 2 días por semana</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>De 3 a 4 días por semana</t>
+  </si>
+  <si>
+    <t>De 5 a 6 días por semana</t>
+  </si>
+  <si>
+    <t>A diario o casi a diario</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
   </si>
   <si>
     <t>5,71%</t>
   </si>
   <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>De 2 a 3 días en un mes</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>De 1 a 2 días por semana</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
   </si>
   <si>
     <t>0,14%</t>
   </si>
   <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>De 3 a 4 días por semana</t>
-  </si>
-  <si>
-    <t>De 5 a 6 días por semana</t>
-  </si>
-  <si>
-    <t>A diario o casi a diario</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
   </si>
   <si>
     <t>4,16%</t>
   </si>
   <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
   </si>
   <si>
     <t>9,27%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
   </si>
   <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
   </si>
   <si>
     <t>0,11%</t>
   </si>
   <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
+    <t>0,82%</t>
   </si>
   <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
+    <t>1,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -2058,7 +2034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27E4A2C-E3BA-4DEA-BAD3-B01971C051A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEA7E85-E874-4E01-AF41-ACC3EB05DEC2}">
   <dimension ref="A1:Q94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2904,7 +2880,7 @@
         <v>109</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -2913,13 +2889,13 @@
         <v>1207</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -2928,10 +2904,10 @@
         <v>6322</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>114</v>
@@ -3410,13 +3386,13 @@
         <v>6314</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -3425,13 +3401,13 @@
         <v>1019</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
@@ -3440,13 +3416,13 @@
         <v>7333</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3461,13 +3437,13 @@
         <v>4228</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -3482,7 +3458,7 @@
         <v>35</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -3491,13 +3467,13 @@
         <v>4228</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>42</v>
+        <v>175</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>172</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3512,13 +3488,13 @@
         <v>859</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -3533,7 +3509,7 @@
         <v>35</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -3542,13 +3518,13 @@
         <v>859</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3563,13 +3539,13 @@
         <v>929</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3584,7 +3560,7 @@
         <v>35</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -3593,13 +3569,13 @@
         <v>929</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3614,13 +3590,13 @@
         <v>2958</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>53</v>
+        <v>184</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>181</v>
+        <v>48</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3635,7 +3611,7 @@
         <v>35</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -3644,13 +3620,13 @@
         <v>2958</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,7 +3682,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3718,13 +3694,13 @@
         <v>28290</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H34" s="7">
         <v>79</v>
@@ -3733,13 +3709,13 @@
         <v>48832</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="M34" s="7">
         <v>102</v>
@@ -3748,13 +3724,13 @@
         <v>77122</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,13 +3745,13 @@
         <v>87234</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H35" s="7">
         <v>67</v>
@@ -3784,13 +3760,13 @@
         <v>50072</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M35" s="7">
         <v>153</v>
@@ -3799,13 +3775,13 @@
         <v>137306</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,13 +3796,13 @@
         <v>42247</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H36" s="7">
         <v>16</v>
@@ -3835,13 +3811,13 @@
         <v>18856</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M36" s="7">
         <v>48</v>
@@ -3850,13 +3826,13 @@
         <v>61103</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3871,13 +3847,13 @@
         <v>11718</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H37" s="7">
         <v>5</v>
@@ -3886,13 +3862,13 @@
         <v>4503</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M37" s="7">
         <v>14</v>
@@ -3901,13 +3877,13 @@
         <v>16221</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3922,13 +3898,13 @@
         <v>3452</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H38" s="7">
         <v>6</v>
@@ -3937,13 +3913,13 @@
         <v>6864</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M38" s="7">
         <v>9</v>
@@ -3952,13 +3928,13 @@
         <v>10317</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3973,13 +3949,13 @@
         <v>5478</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>230</v>
+        <v>179</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H39" s="7">
         <v>4</v>
@@ -3988,13 +3964,13 @@
         <v>3255</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M39" s="7">
         <v>7</v>
@@ -4003,13 +3979,13 @@
         <v>8734</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>123</v>
+        <v>237</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4030,7 +4006,7 @@
         <v>35</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>162</v>
+        <v>239</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -4045,7 +4021,7 @@
         <v>35</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -4081,7 +4057,7 @@
         <v>34</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -4096,7 +4072,7 @@
         <v>35</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M41" s="7">
         <v>1</v>
@@ -4105,13 +4081,13 @@
         <v>757</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>239</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4126,13 +4102,13 @@
         <v>1612</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H42" s="7">
         <v>2</v>
@@ -4141,13 +4117,13 @@
         <v>1002</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M42" s="7">
         <v>4</v>
@@ -4156,13 +4132,13 @@
         <v>2614</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,7 +4194,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>10</v>
@@ -4230,13 +4206,13 @@
         <v>3449</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H44" s="7">
         <v>2</v>
@@ -4245,13 +4221,13 @@
         <v>2238</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M44" s="7">
         <v>7</v>
@@ -4260,13 +4236,13 @@
         <v>5687</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4281,13 +4257,13 @@
         <v>18584</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H45" s="7">
         <v>9</v>
@@ -4296,13 +4272,13 @@
         <v>4275</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>81</v>
+        <v>261</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M45" s="7">
         <v>33</v>
@@ -4311,13 +4287,13 @@
         <v>22859</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4332,13 +4308,13 @@
         <v>7693</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="H46" s="7">
         <v>3</v>
@@ -4347,13 +4323,13 @@
         <v>1451</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>87</v>
+        <v>272</v>
       </c>
       <c r="M46" s="7">
         <v>14</v>
@@ -4362,13 +4338,13 @@
         <v>9144</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4383,13 +4359,13 @@
         <v>1970</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>43</v>
+        <v>276</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="H47" s="7">
         <v>3</v>
@@ -4398,13 +4374,13 @@
         <v>1250</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="M47" s="7">
         <v>6</v>
@@ -4413,13 +4389,13 @@
         <v>3220</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>277</v>
+        <v>25</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>278</v>
+        <v>187</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4434,13 +4410,13 @@
         <v>1413</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>48</v>
+        <v>282</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H48" s="7">
         <v>1</v>
@@ -4449,13 +4425,13 @@
         <v>159</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>282</v>
+        <v>161</v>
       </c>
       <c r="M48" s="7">
         <v>3</v>
@@ -4464,13 +4440,13 @@
         <v>1571</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,7 +4467,7 @@
         <v>35</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H49" s="7">
         <v>1</v>
@@ -4500,13 +4476,13 @@
         <v>424</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M49" s="7">
         <v>1</v>
@@ -4515,13 +4491,13 @@
         <v>424</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4542,7 +4518,7 @@
         <v>35</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -4557,7 +4533,7 @@
         <v>35</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -4572,7 +4548,7 @@
         <v>35</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,7 +4569,7 @@
         <v>35</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -4608,7 +4584,7 @@
         <v>35</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M51" s="7">
         <v>0</v>
@@ -4623,7 +4599,7 @@
         <v>35</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4638,13 +4614,13 @@
         <v>1422</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -4659,7 +4635,7 @@
         <v>35</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M52" s="7">
         <v>1</v>
@@ -4668,13 +4644,13 @@
         <v>1421</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,7 +4706,7 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>10</v>
@@ -4742,13 +4718,13 @@
         <v>20551</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H54" s="7">
         <v>53</v>
@@ -4757,13 +4733,13 @@
         <v>34615</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>302</v>
+        <v>87</v>
       </c>
       <c r="M54" s="7">
         <v>86</v>
@@ -4772,13 +4748,13 @@
         <v>55166</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>305</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4895,7 +4871,7 @@
         <v>10977</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>324</v>
@@ -4913,10 +4889,10 @@
         <v>326</v>
       </c>
       <c r="K57" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L57" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="L57" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M57" s="7">
         <v>15</v>
@@ -4925,10 +4901,10 @@
         <v>15282</v>
       </c>
       <c r="O57" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P57" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="P57" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="Q57" s="7" t="s">
         <v>330</v>
@@ -5012,13 +4988,13 @@
         <v>1042</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>342</v>
+        <v>168</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>343</v>
+        <v>43</v>
       </c>
       <c r="M59" s="7">
         <v>8</v>
@@ -5027,13 +5003,13 @@
         <v>10303</v>
       </c>
       <c r="O59" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P59" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q59" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="P59" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q59" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -5048,13 +5024,13 @@
         <v>3202</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>347</v>
+        <v>182</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>349</v>
+        <v>114</v>
       </c>
       <c r="H60" s="7">
         <v>2</v>
@@ -5063,13 +5039,13 @@
         <v>1498</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>239</v>
+        <v>346</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>350</v>
+        <v>226</v>
       </c>
       <c r="M60" s="7">
         <v>7</v>
@@ -5078,13 +5054,13 @@
         <v>4700</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>352</v>
+        <v>244</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,7 +5096,7 @@
         <v>35</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="M61" s="7">
         <v>0</v>
@@ -5135,7 +5111,7 @@
         <v>35</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>47</v>
+        <v>350</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -5150,13 +5126,13 @@
         <v>4907</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>164</v>
+        <v>351</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -5171,7 +5147,7 @@
         <v>35</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="M62" s="7">
         <v>6</v>
@@ -5180,13 +5156,13 @@
         <v>4907</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>357</v>
+        <v>285</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -5242,7 +5218,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>10</v>
@@ -5254,13 +5230,13 @@
         <v>73348</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H64" s="7">
         <v>117</v>
@@ -5269,13 +5245,13 @@
         <v>202054</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M64" s="7">
         <v>190</v>
@@ -5284,13 +5260,13 @@
         <v>275402</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>366</v>
+        <v>80</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -5305,13 +5281,13 @@
         <v>90498</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H65" s="7">
         <v>70</v>
@@ -5320,13 +5296,13 @@
         <v>47294</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="M65" s="7">
         <v>160</v>
@@ -5335,13 +5311,13 @@
         <v>137792</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5356,13 +5332,13 @@
         <v>71948</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H66" s="7">
         <v>59</v>
@@ -5371,13 +5347,13 @@
         <v>40304</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M66" s="7">
         <v>118</v>
@@ -5386,13 +5362,13 @@
         <v>112251</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -5407,13 +5383,13 @@
         <v>34910</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H67" s="7">
         <v>20</v>
@@ -5422,13 +5398,13 @@
         <v>12958</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>353</v>
+        <v>168</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M67" s="7">
         <v>49</v>
@@ -5437,13 +5413,13 @@
         <v>47867</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -5458,13 +5434,13 @@
         <v>15682</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>392</v>
+        <v>217</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="H68" s="7">
         <v>8</v>
@@ -5473,13 +5449,13 @@
         <v>6490</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>121</v>
+        <v>390</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>167</v>
+        <v>391</v>
       </c>
       <c r="M68" s="7">
         <v>25</v>
@@ -5488,13 +5464,13 @@
         <v>22172</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>395</v>
+        <v>324</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>43</v>
+        <v>393</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5509,13 +5485,13 @@
         <v>11792</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H69" s="7">
         <v>8</v>
@@ -5524,13 +5500,13 @@
         <v>8673</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>400</v>
+        <v>68</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>109</v>
+        <v>397</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="M69" s="7">
         <v>20</v>
@@ -5539,13 +5515,13 @@
         <v>20466</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5566,7 +5542,7 @@
         <v>35</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>403</v>
+        <v>47</v>
       </c>
       <c r="H70" s="7">
         <v>3</v>
@@ -5575,13 +5551,13 @@
         <v>1467</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="K70" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="M70" s="7">
         <v>3</v>
@@ -5590,13 +5566,13 @@
         <v>1467</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>242</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5611,13 +5587,13 @@
         <v>3248</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
@@ -5632,7 +5608,7 @@
         <v>35</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>403</v>
+        <v>47</v>
       </c>
       <c r="M71" s="7">
         <v>3</v>
@@ -5641,13 +5617,13 @@
         <v>3248</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>408</v>
+        <v>116</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>268</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5662,13 +5638,13 @@
         <v>3187</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>178</v>
+        <v>405</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
@@ -5683,7 +5659,7 @@
         <v>35</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>403</v>
+        <v>47</v>
       </c>
       <c r="M72" s="7">
         <v>4</v>
@@ -5692,13 +5668,13 @@
         <v>3187</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5754,7 +5730,7 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>10</v>
@@ -5766,13 +5742,13 @@
         <v>17655</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>241</v>
+        <v>411</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H74" s="7">
         <v>7</v>
@@ -5781,13 +5757,13 @@
         <v>6038</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="M74" s="7">
         <v>22</v>
@@ -5796,13 +5772,13 @@
         <v>23693</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>101</v>
+        <v>416</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5817,13 +5793,13 @@
         <v>128334</v>
       </c>
       <c r="E75" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G75" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="H75" s="7">
         <v>71</v>
@@ -5832,13 +5808,13 @@
         <v>63204</v>
       </c>
       <c r="J75" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="L75" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="K75" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="L75" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="M75" s="7">
         <v>198</v>
@@ -5847,13 +5823,13 @@
         <v>191538</v>
       </c>
       <c r="O75" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="P75" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q75" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="P75" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q75" s="7" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -5868,13 +5844,13 @@
         <v>104404</v>
       </c>
       <c r="E76" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="G76" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>431</v>
       </c>
       <c r="H76" s="7">
         <v>34</v>
@@ -5883,13 +5859,13 @@
         <v>28547</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>433</v>
+        <v>382</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="M76" s="7">
         <v>131</v>
@@ -5898,13 +5874,13 @@
         <v>132951</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -5919,13 +5895,13 @@
         <v>24589</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>437</v>
+        <v>238</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="H77" s="7">
         <v>5</v>
@@ -5934,13 +5910,13 @@
         <v>3862</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="M77" s="7">
         <v>28</v>
@@ -5949,13 +5925,13 @@
         <v>28451</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>415</v>
+        <v>441</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -5970,13 +5946,13 @@
         <v>22996</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>114</v>
+        <v>443</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H78" s="7">
         <v>6</v>
@@ -5985,13 +5961,13 @@
         <v>5417</v>
       </c>
       <c r="J78" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="L78" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="K78" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="L78" s="7" t="s">
-        <v>449</v>
       </c>
       <c r="M78" s="7">
         <v>22</v>
@@ -6000,13 +5976,13 @@
         <v>28413</v>
       </c>
       <c r="O78" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="P78" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q78" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="P78" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q78" s="7" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -6021,10 +5997,10 @@
         <v>18545</v>
       </c>
       <c r="E79" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="F79" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="G79" s="7" t="s">
         <v>453</v>
@@ -6039,10 +6015,10 @@
         <v>454</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>63</v>
+        <v>455</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M79" s="7">
         <v>24</v>
@@ -6051,13 +6027,13 @@
         <v>26502</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -6078,7 +6054,7 @@
         <v>34</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H80" s="7">
         <v>1</v>
@@ -6087,13 +6063,13 @@
         <v>1558</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="K80" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M80" s="7">
         <v>3</v>
@@ -6102,13 +6078,13 @@
         <v>3486</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>356</v>
+        <v>463</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>232</v>
+        <v>465</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -6129,7 +6105,7 @@
         <v>34</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>184</v>
+        <v>466</v>
       </c>
       <c r="H81" s="7">
         <v>0</v>
@@ -6144,7 +6120,7 @@
         <v>35</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="M81" s="7">
         <v>1</v>
@@ -6153,13 +6129,13 @@
         <v>1796</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="P81" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -6174,13 +6150,13 @@
         <v>4947</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>467</v>
+        <v>184</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H82" s="7">
         <v>5</v>
@@ -6189,13 +6165,13 @@
         <v>5728</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="M82" s="7">
         <v>9</v>
@@ -6204,13 +6180,13 @@
         <v>10676</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>416</v>
+        <v>476</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -6278,13 +6254,13 @@
         <v>332365</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>475</v>
+        <v>74</v>
       </c>
       <c r="H84" s="7">
         <v>521</v>
@@ -6293,13 +6269,13 @@
         <v>471221</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="M84" s="7">
         <v>859</v>
@@ -6308,13 +6284,13 @@
         <v>803586</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="P84" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -6329,13 +6305,13 @@
         <v>663446</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="H85" s="7">
         <v>396</v>
@@ -6344,13 +6320,13 @@
         <v>287385</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="M85" s="7">
         <v>1077</v>
@@ -6359,13 +6335,13 @@
         <v>950831</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="P85" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -6380,13 +6356,13 @@
         <v>343022</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="H86" s="7">
         <v>172</v>
@@ -6395,13 +6371,13 @@
         <v>141885</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="K86" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="M86" s="7">
         <v>487</v>
@@ -6410,13 +6386,13 @@
         <v>484907</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="P86" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -6431,13 +6407,13 @@
         <v>116129</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="H87" s="7">
         <v>43</v>
@@ -6446,13 +6422,13 @@
         <v>31324</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>503</v>
+        <v>329</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="M87" s="7">
         <v>143</v>
@@ -6461,13 +6437,13 @@
         <v>147453</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="P87" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>508</v>
+        <v>396</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
@@ -6482,13 +6458,13 @@
         <v>65450</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F88" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="G88" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H88" s="7">
         <v>30</v>
@@ -6500,10 +6476,10 @@
         <v>510</v>
       </c>
       <c r="K88" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L88" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="L88" s="7" t="s">
-        <v>512</v>
       </c>
       <c r="M88" s="7">
         <v>89</v>
@@ -6512,13 +6488,13 @@
         <v>92827</v>
       </c>
       <c r="O88" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="P88" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q88" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="P88" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q88" s="7" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
@@ -6533,13 +6509,13 @@
         <v>55375</v>
       </c>
       <c r="E89" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="G89" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="H89" s="7">
         <v>26</v>
@@ -6548,13 +6524,13 @@
         <v>23191</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>174</v>
+        <v>516</v>
       </c>
       <c r="K89" s="7" t="s">
-        <v>518</v>
+        <v>467</v>
       </c>
       <c r="L89" s="7" t="s">
-        <v>344</v>
+        <v>517</v>
       </c>
       <c r="M89" s="7">
         <v>74</v>
@@ -6563,13 +6539,13 @@
         <v>78566</v>
       </c>
       <c r="O89" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="P89" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q89" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="P89" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="Q89" s="7" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
@@ -6584,13 +6560,13 @@
         <v>5989</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>522</v>
+        <v>184</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>524</v>
+        <v>463</v>
       </c>
       <c r="H90" s="7">
         <v>6</v>
@@ -6599,13 +6575,13 @@
         <v>4522</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="K90" s="7" t="s">
-        <v>525</v>
+        <v>464</v>
       </c>
       <c r="L90" s="7" t="s">
-        <v>441</v>
+        <v>521</v>
       </c>
       <c r="M90" s="7">
         <v>14</v>
@@ -6614,13 +6590,13 @@
         <v>10511</v>
       </c>
       <c r="O90" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="P90" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="Q90" s="7" t="s">
-        <v>527</v>
+        <v>56</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
@@ -6638,10 +6614,10 @@
         <v>121</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>240</v>
+        <v>67</v>
       </c>
       <c r="H91" s="7">
         <v>0</v>
@@ -6656,7 +6632,7 @@
         <v>35</v>
       </c>
       <c r="L91" s="7" t="s">
-        <v>523</v>
+        <v>464</v>
       </c>
       <c r="M91" s="7">
         <v>6</v>
@@ -6665,13 +6641,13 @@
         <v>6731</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="P91" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="Q91" s="7" t="s">
-        <v>530</v>
+        <v>69</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
@@ -6686,13 +6662,13 @@
         <v>20377</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>532</v>
+        <v>224</v>
       </c>
       <c r="H92" s="7">
         <v>7</v>
@@ -6701,13 +6677,13 @@
         <v>6731</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>526</v>
+        <v>186</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="M92" s="7">
         <v>30</v>
@@ -6719,10 +6695,10 @@
         <v>50</v>
       </c>
       <c r="P92" s="7" t="s">
-        <v>533</v>
+        <v>56</v>
       </c>
       <c r="Q92" s="7" t="s">
-        <v>535</v>
+        <v>284</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
@@ -6778,7 +6754,7 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P32D_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P32D_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1CE0B6A-3C75-44F8-A1C4-EECCB862B57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BD4777A-6871-4C4B-BC44-697780E4A87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5655F00F-9417-4466-90A1-7AAF10BB0D28}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BE789F37-A97F-433C-A8F3-CA4B2A952873}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="535">
   <si>
     <t>Población según si en los últimos 12 meses ha tomado 6/5 (Hombre/Mujer) o más bebidas estándar en una misma ocasión en 2023 (Tasa respuesta: 31,79%)</t>
   </si>
@@ -71,1555 +71,1573 @@
     <t>Nunca en toda mi vida</t>
   </si>
   <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
   </si>
   <si>
     <t>No en los últimos 12 meses</t>
   </si>
   <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>Menos de una vez al mes</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>Una vez al mes</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>De 2 a 3 días en un mes</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>De 1 a 2 días por semana</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>De 3 a 4 días por semana</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>De 5 a 6 días por semana</t>
+  </si>
+  <si>
+    <t>A diario o casi a diario</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
     <t>31,83%</t>
   </si>
   <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>Menos de una vez al mes</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>Una vez al mes</t>
-  </si>
-  <si>
-    <t>2,05%</t>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
   </si>
   <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>De 2 a 3 días en un mes</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>De 1 a 2 días por semana</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>De 3 a 4 días por semana</t>
-  </si>
-  <si>
-    <t>De 5 a 6 días por semana</t>
-  </si>
-  <si>
-    <t>A diario o casi a diario</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
     <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -2034,7 +2052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEA7E85-E874-4E01-AF41-ACC3EB05DEC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E366C3-DDF7-41A1-BCBF-851E8DB106B1}">
   <dimension ref="A1:Q94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2155,7 +2173,7 @@
         <v>111</v>
       </c>
       <c r="D4" s="7">
-        <v>88282</v>
+        <v>101983</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2170,7 +2188,7 @@
         <v>135</v>
       </c>
       <c r="I4" s="7">
-        <v>71493</v>
+        <v>76059</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2185,7 +2203,7 @@
         <v>246</v>
       </c>
       <c r="N4" s="7">
-        <v>159775</v>
+        <v>178042</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2206,7 +2224,7 @@
         <v>56</v>
       </c>
       <c r="D5" s="7">
-        <v>49165</v>
+        <v>57313</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2221,7 +2239,7 @@
         <v>22</v>
       </c>
       <c r="I5" s="7">
-        <v>9993</v>
+        <v>10799</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2236,7 +2254,7 @@
         <v>78</v>
       </c>
       <c r="N5" s="7">
-        <v>59158</v>
+        <v>68112</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2257,7 +2275,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="7">
-        <v>11427</v>
+        <v>13917</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2287,7 +2305,7 @@
         <v>11</v>
       </c>
       <c r="N6" s="7">
-        <v>11427</v>
+        <v>13917</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -2308,7 +2326,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>3167</v>
+        <v>3847</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -2323,7 +2341,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>1060</v>
+        <v>1107</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -2338,7 +2356,7 @@
         <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>4227</v>
+        <v>4954</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>46</v>
@@ -2374,7 +2392,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>1326</v>
+        <v>1566</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>51</v>
@@ -2389,7 +2407,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>1326</v>
+        <v>1566</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>53</v>
@@ -2410,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>1096</v>
+        <v>1408</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>56</v>
@@ -2425,7 +2443,7 @@
         <v>3</v>
       </c>
       <c r="I9" s="7">
-        <v>1084</v>
+        <v>1152</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>58</v>
@@ -2440,7 +2458,7 @@
         <v>4</v>
       </c>
       <c r="N9" s="7">
-        <v>2180</v>
+        <v>2559</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>61</v>
@@ -2500,13 +2518,13 @@
         <v>35</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -2551,28 +2569,28 @@
         <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C12" s="7">
         <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>1344</v>
+        <v>1422</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2593,16 +2611,16 @@
         <v>2</v>
       </c>
       <c r="N12" s="7">
-        <v>1344</v>
+        <v>1422</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2614,51 +2632,51 @@
         <v>184</v>
       </c>
       <c r="D13" s="7">
-        <v>154480</v>
+        <v>179889</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>163</v>
       </c>
       <c r="I13" s="7">
-        <v>84957</v>
+        <v>90683</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>347</v>
       </c>
       <c r="N13" s="7">
-        <v>239437</v>
+        <v>270572</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2667,46 +2685,46 @@
         <v>48</v>
       </c>
       <c r="D14" s="7">
-        <v>75049</v>
+        <v>78795</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>79</v>
       </c>
       <c r="I14" s="7">
-        <v>67544</v>
+        <v>63019</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>127</v>
       </c>
       <c r="N14" s="7">
-        <v>142593</v>
+        <v>141813</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2718,46 +2736,46 @@
         <v>97</v>
       </c>
       <c r="D15" s="7">
-        <v>130031</v>
+        <v>128448</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H15" s="7">
         <v>50</v>
       </c>
       <c r="I15" s="7">
-        <v>41716</v>
+        <v>38977</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M15" s="7">
         <v>147</v>
       </c>
       <c r="N15" s="7">
-        <v>171747</v>
+        <v>167425</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,46 +2787,46 @@
         <v>18</v>
       </c>
       <c r="D16" s="7">
-        <v>20834</v>
+        <v>20700</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
       </c>
       <c r="I16" s="7">
-        <v>12442</v>
+        <v>11554</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
       </c>
       <c r="N16" s="7">
-        <v>33276</v>
+        <v>32254</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,46 +2838,46 @@
         <v>10</v>
       </c>
       <c r="D17" s="7">
-        <v>17198</v>
+        <v>17505</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>1635</v>
+        <v>1536</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
       </c>
       <c r="N17" s="7">
-        <v>18833</v>
+        <v>19040</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2871,13 +2889,13 @@
         <v>3</v>
       </c>
       <c r="D18" s="7">
-        <v>5115</v>
+        <v>5297</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>110</v>
@@ -2886,7 +2904,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>1207</v>
+        <v>1161</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>111</v>
@@ -2901,13 +2919,13 @@
         <v>4</v>
       </c>
       <c r="N18" s="7">
-        <v>6322</v>
+        <v>6458</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>114</v>
@@ -2922,7 +2940,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>4975</v>
+        <v>4891</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>115</v>
@@ -2937,7 +2955,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>118</v>
@@ -2952,7 +2970,7 @@
         <v>5</v>
       </c>
       <c r="N19" s="7">
-        <v>5730</v>
+        <v>5615</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>120</v>
@@ -3018,7 +3036,7 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -3069,7 +3087,7 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -3126,46 +3144,46 @@
         <v>180</v>
       </c>
       <c r="D23" s="7">
-        <v>253202</v>
+        <v>255636</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H23" s="7">
         <v>146</v>
       </c>
       <c r="I23" s="7">
-        <v>125299</v>
+        <v>116970</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M23" s="7">
         <v>326</v>
       </c>
       <c r="N23" s="7">
-        <v>378501</v>
+        <v>372606</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,7 +3197,7 @@
         <v>30</v>
       </c>
       <c r="D24" s="7">
-        <v>25739</v>
+        <v>24992</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>127</v>
@@ -3194,31 +3212,31 @@
         <v>49</v>
       </c>
       <c r="I24" s="7">
-        <v>38408</v>
+        <v>36219</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>130</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M24" s="7">
         <v>79</v>
       </c>
       <c r="N24" s="7">
-        <v>64148</v>
+        <v>61211</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,46 +3248,46 @@
         <v>105</v>
       </c>
       <c r="D25" s="7">
-        <v>87509</v>
+        <v>85371</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H25" s="7">
         <v>47</v>
       </c>
       <c r="I25" s="7">
-        <v>32699</v>
+        <v>30773</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M25" s="7">
         <v>152</v>
       </c>
       <c r="N25" s="7">
-        <v>120208</v>
+        <v>116144</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,46 +3299,46 @@
         <v>46</v>
       </c>
       <c r="D26" s="7">
-        <v>46516</v>
+        <v>46113</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H26" s="7">
         <v>25</v>
       </c>
       <c r="I26" s="7">
-        <v>21435</v>
+        <v>20201</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M26" s="7">
         <v>71</v>
       </c>
       <c r="N26" s="7">
-        <v>67951</v>
+        <v>66313</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,46 +3350,46 @@
         <v>12</v>
       </c>
       <c r="D27" s="7">
-        <v>11600</v>
+        <v>11419</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H27" s="7">
         <v>2</v>
       </c>
       <c r="I27" s="7">
-        <v>1752</v>
+        <v>1632</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M27" s="7">
         <v>14</v>
       </c>
       <c r="N27" s="7">
-        <v>13352</v>
+        <v>13051</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,46 +3401,46 @@
         <v>6</v>
       </c>
       <c r="D28" s="7">
-        <v>6314</v>
+        <v>6347</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
       </c>
       <c r="I28" s="7">
-        <v>1019</v>
+        <v>987</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
       </c>
       <c r="N28" s="7">
-        <v>7333</v>
+        <v>7334</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,16 +3452,16 @@
         <v>5</v>
       </c>
       <c r="D29" s="7">
-        <v>4228</v>
+        <v>4119</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -3458,22 +3476,22 @@
         <v>35</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
       </c>
       <c r="N29" s="7">
-        <v>4228</v>
+        <v>4119</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,16 +3503,16 @@
         <v>1</v>
       </c>
       <c r="D30" s="7">
-        <v>859</v>
+        <v>831</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -3509,43 +3527,43 @@
         <v>35</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
       </c>
       <c r="N30" s="7">
-        <v>859</v>
+        <v>831</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>929</v>
+        <v>894</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3560,43 +3578,43 @@
         <v>35</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
       </c>
       <c r="N31" s="7">
-        <v>929</v>
+        <v>894</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C32" s="7">
         <v>4</v>
       </c>
       <c r="D32" s="7">
-        <v>2958</v>
+        <v>2809</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3611,22 +3629,22 @@
         <v>35</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
       </c>
       <c r="N32" s="7">
-        <v>2958</v>
+        <v>2809</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,51 +3656,51 @@
         <v>210</v>
       </c>
       <c r="D33" s="7">
-        <v>186653</v>
+        <v>182895</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H33" s="7">
         <v>124</v>
       </c>
       <c r="I33" s="7">
-        <v>95313</v>
+        <v>89812</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M33" s="7">
         <v>334</v>
       </c>
       <c r="N33" s="7">
-        <v>281966</v>
+        <v>272707</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3691,46 +3709,46 @@
         <v>23</v>
       </c>
       <c r="D34" s="7">
-        <v>28290</v>
+        <v>30192</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H34" s="7">
         <v>79</v>
       </c>
       <c r="I34" s="7">
-        <v>48832</v>
+        <v>45353</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M34" s="7">
         <v>102</v>
       </c>
       <c r="N34" s="7">
-        <v>77122</v>
+        <v>75544</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,46 +3760,46 @@
         <v>86</v>
       </c>
       <c r="D35" s="7">
-        <v>87234</v>
+        <v>83608</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H35" s="7">
         <v>67</v>
       </c>
       <c r="I35" s="7">
-        <v>50072</v>
+        <v>46336</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M35" s="7">
         <v>153</v>
       </c>
       <c r="N35" s="7">
-        <v>137306</v>
+        <v>129944</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,46 +3811,46 @@
         <v>32</v>
       </c>
       <c r="D36" s="7">
-        <v>42247</v>
+        <v>40216</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H36" s="7">
         <v>16</v>
       </c>
       <c r="I36" s="7">
-        <v>18856</v>
+        <v>17455</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M36" s="7">
         <v>48</v>
       </c>
       <c r="N36" s="7">
-        <v>61103</v>
+        <v>57671</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,46 +3862,46 @@
         <v>9</v>
       </c>
       <c r="D37" s="7">
-        <v>11718</v>
+        <v>11697</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H37" s="7">
         <v>5</v>
       </c>
       <c r="I37" s="7">
-        <v>4503</v>
+        <v>4164</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M37" s="7">
         <v>14</v>
       </c>
       <c r="N37" s="7">
-        <v>16221</v>
+        <v>15862</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,46 +3913,46 @@
         <v>3</v>
       </c>
       <c r="D38" s="7">
-        <v>3452</v>
+        <v>3457</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H38" s="7">
         <v>6</v>
       </c>
       <c r="I38" s="7">
-        <v>6864</v>
+        <v>6353</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>226</v>
+        <v>37</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M38" s="7">
         <v>9</v>
       </c>
       <c r="N38" s="7">
-        <v>10317</v>
+        <v>9811</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,46 +3964,46 @@
         <v>3</v>
       </c>
       <c r="D39" s="7">
-        <v>5478</v>
+        <v>5307</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>179</v>
+        <v>116</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H39" s="7">
         <v>4</v>
       </c>
       <c r="I39" s="7">
-        <v>3255</v>
+        <v>3016</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M39" s="7">
         <v>7</v>
       </c>
       <c r="N39" s="7">
-        <v>8734</v>
+        <v>8323</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,7 +4024,7 @@
         <v>35</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -4021,7 +4039,7 @@
         <v>35</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>165</v>
+        <v>238</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -4036,28 +4054,28 @@
         <v>35</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>109</v>
+        <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
       </c>
       <c r="D41" s="7">
-        <v>757</v>
+        <v>722</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>121</v>
+        <v>240</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>240</v>
+        <v>41</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -4072,13 +4090,13 @@
         <v>35</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>165</v>
+        <v>238</v>
       </c>
       <c r="M41" s="7">
         <v>1</v>
       </c>
       <c r="N41" s="7">
-        <v>757</v>
+        <v>722</v>
       </c>
       <c r="O41" s="7" t="s">
         <v>241</v>
@@ -4087,52 +4105,52 @@
         <v>34</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>58</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C42" s="7">
         <v>2</v>
       </c>
       <c r="D42" s="7">
-        <v>1612</v>
+        <v>1521</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H42" s="7">
         <v>2</v>
       </c>
       <c r="I42" s="7">
-        <v>1002</v>
+        <v>941</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M42" s="7">
         <v>4</v>
       </c>
       <c r="N42" s="7">
-        <v>2614</v>
+        <v>2462</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>246</v>
+        <v>169</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>247</v>
@@ -4150,46 +4168,46 @@
         <v>159</v>
       </c>
       <c r="D43" s="7">
-        <v>180789</v>
+        <v>176720</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H43" s="7">
         <v>179</v>
       </c>
       <c r="I43" s="7">
-        <v>133386</v>
+        <v>123619</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M43" s="7">
         <v>338</v>
       </c>
       <c r="N43" s="7">
-        <v>314174</v>
+        <v>300339</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,7 +4221,7 @@
         <v>5</v>
       </c>
       <c r="D44" s="7">
-        <v>3449</v>
+        <v>3103</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>250</v>
@@ -4218,7 +4236,7 @@
         <v>2</v>
       </c>
       <c r="I44" s="7">
-        <v>2238</v>
+        <v>1686</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>253</v>
@@ -4233,7 +4251,7 @@
         <v>7</v>
       </c>
       <c r="N44" s="7">
-        <v>5687</v>
+        <v>4789</v>
       </c>
       <c r="O44" s="7" t="s">
         <v>255</v>
@@ -4254,7 +4272,7 @@
         <v>24</v>
       </c>
       <c r="D45" s="7">
-        <v>18584</v>
+        <v>16602</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>258</v>
@@ -4269,7 +4287,7 @@
         <v>9</v>
       </c>
       <c r="I45" s="7">
-        <v>4275</v>
+        <v>3908</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>261</v>
@@ -4284,7 +4302,7 @@
         <v>33</v>
       </c>
       <c r="N45" s="7">
-        <v>22859</v>
+        <v>20511</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>264</v>
@@ -4305,7 +4323,7 @@
         <v>11</v>
       </c>
       <c r="D46" s="7">
-        <v>7693</v>
+        <v>7086</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>267</v>
@@ -4320,7 +4338,7 @@
         <v>3</v>
       </c>
       <c r="I46" s="7">
-        <v>1451</v>
+        <v>1309</v>
       </c>
       <c r="J46" s="7" t="s">
         <v>270</v>
@@ -4335,7 +4353,7 @@
         <v>14</v>
       </c>
       <c r="N46" s="7">
-        <v>9144</v>
+        <v>8396</v>
       </c>
       <c r="O46" s="7" t="s">
         <v>273</v>
@@ -4356,7 +4374,7 @@
         <v>3</v>
       </c>
       <c r="D47" s="7">
-        <v>1970</v>
+        <v>1798</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>276</v>
@@ -4371,31 +4389,31 @@
         <v>3</v>
       </c>
       <c r="I47" s="7">
-        <v>1250</v>
+        <v>1135</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>279</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M47" s="7">
         <v>6</v>
       </c>
       <c r="N47" s="7">
-        <v>3220</v>
+        <v>2933</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>25</v>
+        <v>282</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>187</v>
+        <v>283</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,46 +4425,46 @@
         <v>2</v>
       </c>
       <c r="D48" s="7">
-        <v>1413</v>
+        <v>1283</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H48" s="7">
         <v>1</v>
       </c>
       <c r="I48" s="7">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>161</v>
+        <v>288</v>
       </c>
       <c r="M48" s="7">
         <v>3</v>
       </c>
       <c r="N48" s="7">
-        <v>1571</v>
+        <v>1441</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,37 +4485,37 @@
         <v>35</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H49" s="7">
         <v>1</v>
       </c>
       <c r="I49" s="7">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M49" s="7">
         <v>1</v>
       </c>
       <c r="N49" s="7">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>111</v>
+        <v>295</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,7 +4536,7 @@
         <v>35</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -4533,7 +4551,7 @@
         <v>35</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -4548,13 +4566,13 @@
         <v>35</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>293</v>
+        <v>246</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C51" s="7">
         <v>0</v>
@@ -4569,7 +4587,7 @@
         <v>35</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -4584,7 +4602,7 @@
         <v>35</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="M51" s="7">
         <v>0</v>
@@ -4599,28 +4617,28 @@
         <v>35</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>293</v>
+        <v>246</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C52" s="7">
         <v>1</v>
       </c>
       <c r="D52" s="7">
-        <v>1422</v>
+        <v>1273</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -4635,22 +4653,22 @@
         <v>35</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="M52" s="7">
         <v>1</v>
       </c>
       <c r="N52" s="7">
-        <v>1421</v>
+        <v>1273</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4662,51 +4680,51 @@
         <v>46</v>
       </c>
       <c r="D53" s="7">
-        <v>34530</v>
+        <v>31146</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H53" s="7">
         <v>19</v>
       </c>
       <c r="I53" s="7">
-        <v>9796</v>
+        <v>8583</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M53" s="7">
         <v>65</v>
       </c>
       <c r="N53" s="7">
-        <v>44326</v>
+        <v>39729</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>10</v>
@@ -4715,46 +4733,46 @@
         <v>33</v>
       </c>
       <c r="D54" s="7">
-        <v>20551</v>
+        <v>19781</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H54" s="7">
         <v>53</v>
       </c>
       <c r="I54" s="7">
-        <v>34615</v>
+        <v>32317</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>87</v>
+        <v>308</v>
       </c>
       <c r="M54" s="7">
         <v>86</v>
       </c>
       <c r="N54" s="7">
-        <v>55166</v>
+        <v>52098</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>195</v>
+        <v>311</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,46 +4784,46 @@
         <v>96</v>
       </c>
       <c r="D55" s="7">
-        <v>72093</v>
+        <v>69920</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="H55" s="7">
         <v>60</v>
       </c>
       <c r="I55" s="7">
-        <v>38131</v>
+        <v>35522</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="M55" s="7">
         <v>156</v>
       </c>
       <c r="N55" s="7">
-        <v>110224</v>
+        <v>105442</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>312</v>
+        <v>130</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4817,46 +4835,46 @@
         <v>41</v>
       </c>
       <c r="D56" s="7">
-        <v>37955</v>
+        <v>37027</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="H56" s="7">
         <v>22</v>
       </c>
       <c r="I56" s="7">
-        <v>18851</v>
+        <v>17555</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="M56" s="7">
         <v>63</v>
       </c>
       <c r="N56" s="7">
-        <v>56805</v>
+        <v>54583</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4868,46 +4886,46 @@
         <v>11</v>
       </c>
       <c r="D57" s="7">
-        <v>10977</v>
+        <v>10867</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>216</v>
+        <v>329</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>325</v>
+        <v>268</v>
       </c>
       <c r="H57" s="7">
         <v>4</v>
       </c>
       <c r="I57" s="7">
-        <v>4304</v>
+        <v>3983</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>44</v>
+        <v>332</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="M57" s="7">
         <v>15</v>
       </c>
       <c r="N57" s="7">
-        <v>15282</v>
+        <v>14850</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>328</v>
+        <v>167</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4919,46 +4937,46 @@
         <v>12</v>
       </c>
       <c r="D58" s="7">
-        <v>10478</v>
+        <v>10694</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>332</v>
+        <v>216</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H58" s="7">
         <v>6</v>
       </c>
       <c r="I58" s="7">
-        <v>4895</v>
+        <v>4642</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>159</v>
+        <v>337</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>334</v>
+        <v>71</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="M58" s="7">
         <v>18</v>
       </c>
       <c r="N58" s="7">
-        <v>15373</v>
+        <v>15336</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4970,46 +4988,46 @@
         <v>7</v>
       </c>
       <c r="D59" s="7">
-        <v>9260</v>
+        <v>9016</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>339</v>
+        <v>99</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>340</v>
+        <v>41</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H59" s="7">
         <v>1</v>
       </c>
       <c r="I59" s="7">
-        <v>1042</v>
+        <v>1025</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>43</v>
+        <v>343</v>
       </c>
       <c r="M59" s="7">
         <v>8</v>
       </c>
       <c r="N59" s="7">
-        <v>10303</v>
+        <v>10042</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>343</v>
+        <v>51</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -5021,52 +5039,52 @@
         <v>5</v>
       </c>
       <c r="D60" s="7">
-        <v>3202</v>
+        <v>3046</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>182</v>
+        <v>346</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>114</v>
+        <v>348</v>
       </c>
       <c r="H60" s="7">
         <v>2</v>
       </c>
       <c r="I60" s="7">
-        <v>1498</v>
+        <v>1375</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>226</v>
+        <v>350</v>
       </c>
       <c r="M60" s="7">
         <v>7</v>
       </c>
       <c r="N60" s="7">
-        <v>4700</v>
+        <v>4421</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>244</v>
+        <v>352</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C61" s="7">
         <v>0</v>
@@ -5081,7 +5099,7 @@
         <v>35</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>61</v>
+        <v>217</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -5096,7 +5114,7 @@
         <v>35</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="M61" s="7">
         <v>0</v>
@@ -5111,28 +5129,28 @@
         <v>35</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>350</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C62" s="7">
         <v>6</v>
       </c>
       <c r="D62" s="7">
-        <v>4907</v>
+        <v>4696</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>351</v>
+        <v>61</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -5147,22 +5165,22 @@
         <v>35</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="M62" s="7">
         <v>6</v>
       </c>
       <c r="N62" s="7">
-        <v>4907</v>
+        <v>4696</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>285</v>
+        <v>359</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -5174,51 +5192,51 @@
         <v>211</v>
       </c>
       <c r="D63" s="7">
-        <v>169424</v>
+        <v>165048</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H63" s="7">
         <v>148</v>
       </c>
       <c r="I63" s="7">
-        <v>103336</v>
+        <v>96420</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M63" s="7">
         <v>359</v>
       </c>
       <c r="N63" s="7">
-        <v>272759</v>
+        <v>261468</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>10</v>
@@ -5227,46 +5245,46 @@
         <v>73</v>
       </c>
       <c r="D64" s="7">
-        <v>73348</v>
+        <v>71843</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="H64" s="7">
         <v>117</v>
       </c>
       <c r="I64" s="7">
-        <v>202054</v>
+        <v>289021</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="M64" s="7">
         <v>190</v>
       </c>
       <c r="N64" s="7">
-        <v>275402</v>
+        <v>360864</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>80</v>
+        <v>368</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -5278,46 +5296,46 @@
         <v>90</v>
       </c>
       <c r="D65" s="7">
-        <v>90498</v>
+        <v>87328</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="H65" s="7">
         <v>70</v>
       </c>
       <c r="I65" s="7">
-        <v>47294</v>
+        <v>43989</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>270</v>
+        <v>373</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="M65" s="7">
         <v>160</v>
       </c>
       <c r="N65" s="7">
-        <v>137792</v>
+        <v>131317</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5329,46 +5347,46 @@
         <v>59</v>
       </c>
       <c r="D66" s="7">
-        <v>71948</v>
+        <v>73032</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="H66" s="7">
         <v>59</v>
       </c>
       <c r="I66" s="7">
-        <v>40304</v>
+        <v>38018</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>95</v>
+        <v>383</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>376</v>
+        <v>273</v>
       </c>
       <c r="M66" s="7">
         <v>118</v>
       </c>
       <c r="N66" s="7">
-        <v>112251</v>
+        <v>111050</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -5380,46 +5398,46 @@
         <v>29</v>
       </c>
       <c r="D67" s="7">
-        <v>34910</v>
+        <v>38688</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="H67" s="7">
         <v>20</v>
       </c>
       <c r="I67" s="7">
-        <v>12958</v>
+        <v>12138</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="M67" s="7">
         <v>49</v>
       </c>
       <c r="N67" s="7">
-        <v>47867</v>
+        <v>50826</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>386</v>
+        <v>246</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -5431,46 +5449,46 @@
         <v>17</v>
       </c>
       <c r="D68" s="7">
-        <v>15682</v>
+        <v>15490</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>217</v>
+        <v>394</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="H68" s="7">
         <v>8</v>
       </c>
       <c r="I68" s="7">
-        <v>6490</v>
+        <v>5829</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="M68" s="7">
         <v>25</v>
       </c>
       <c r="N68" s="7">
-        <v>22172</v>
+        <v>21319</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>324</v>
+        <v>244</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5482,46 +5500,46 @@
         <v>12</v>
       </c>
       <c r="D69" s="7">
-        <v>11792</v>
+        <v>11330</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="H69" s="7">
         <v>8</v>
       </c>
       <c r="I69" s="7">
-        <v>8673</v>
+        <v>8065</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>68</v>
+        <v>404</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="M69" s="7">
         <v>20</v>
       </c>
       <c r="N69" s="7">
-        <v>20466</v>
+        <v>19395</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>229</v>
+        <v>407</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>174</v>
+        <v>408</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5542,58 +5560,58 @@
         <v>35</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>47</v>
+        <v>410</v>
       </c>
       <c r="H70" s="7">
         <v>3</v>
       </c>
       <c r="I70" s="7">
-        <v>1467</v>
+        <v>1397</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="K70" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>400</v>
+        <v>124</v>
       </c>
       <c r="M70" s="7">
         <v>3</v>
       </c>
       <c r="N70" s="7">
-        <v>1467</v>
+        <v>1397</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>241</v>
+        <v>411</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>401</v>
+        <v>34</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C71" s="7">
         <v>3</v>
       </c>
       <c r="D71" s="7">
-        <v>3248</v>
+        <v>3094</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>165</v>
+        <v>412</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>402</v>
+        <v>247</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
@@ -5608,43 +5626,43 @@
         <v>35</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>47</v>
+        <v>410</v>
       </c>
       <c r="M71" s="7">
         <v>3</v>
       </c>
       <c r="N71" s="7">
-        <v>3248</v>
+        <v>3094</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>116</v>
+        <v>414</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>404</v>
+        <v>34</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>120</v>
+        <v>415</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C72" s="7">
         <v>4</v>
       </c>
       <c r="D72" s="7">
-        <v>3187</v>
+        <v>3041</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>185</v>
+        <v>416</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>405</v>
+        <v>179</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
@@ -5659,22 +5677,22 @@
         <v>35</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>47</v>
+        <v>410</v>
       </c>
       <c r="M72" s="7">
         <v>4</v>
       </c>
       <c r="N72" s="7">
-        <v>3187</v>
+        <v>3041</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>407</v>
+        <v>42</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>408</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5686,51 +5704,51 @@
         <v>287</v>
       </c>
       <c r="D73" s="7">
-        <v>304613</v>
+        <v>303846</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H73" s="7">
         <v>285</v>
       </c>
       <c r="I73" s="7">
-        <v>319239</v>
+        <v>398457</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M73" s="7">
         <v>572</v>
       </c>
       <c r="N73" s="7">
-        <v>623852</v>
+        <v>702303</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>10</v>
@@ -5739,46 +5757,46 @@
         <v>15</v>
       </c>
       <c r="D74" s="7">
-        <v>17655</v>
+        <v>15060</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>410</v>
+        <v>99</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>412</v>
+        <v>218</v>
       </c>
       <c r="H74" s="7">
         <v>7</v>
       </c>
       <c r="I74" s="7">
-        <v>6038</v>
+        <v>5065</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>108</v>
+        <v>422</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="M74" s="7">
         <v>22</v>
       </c>
       <c r="N74" s="7">
-        <v>23693</v>
+        <v>20124</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5790,46 +5808,46 @@
         <v>127</v>
       </c>
       <c r="D75" s="7">
-        <v>128334</v>
+        <v>109236</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="H75" s="7">
         <v>71</v>
       </c>
       <c r="I75" s="7">
-        <v>63204</v>
+        <v>51887</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="M75" s="7">
         <v>198</v>
       </c>
       <c r="N75" s="7">
-        <v>191538</v>
+        <v>161123</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>425</v>
+        <v>196</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -5841,46 +5859,46 @@
         <v>97</v>
       </c>
       <c r="D76" s="7">
-        <v>104404</v>
+        <v>88585</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="H76" s="7">
         <v>34</v>
       </c>
       <c r="I76" s="7">
-        <v>28547</v>
+        <v>23670</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>382</v>
+        <v>439</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="M76" s="7">
         <v>131</v>
       </c>
       <c r="N76" s="7">
-        <v>132951</v>
+        <v>112255</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>364</v>
+        <v>441</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -5892,46 +5910,46 @@
         <v>23</v>
       </c>
       <c r="D77" s="7">
-        <v>24589</v>
+        <v>20862</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>238</v>
+        <v>444</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="H77" s="7">
         <v>5</v>
       </c>
       <c r="I77" s="7">
-        <v>3862</v>
+        <v>3268</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>436</v>
+        <v>226</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="M77" s="7">
         <v>28</v>
       </c>
       <c r="N77" s="7">
-        <v>28451</v>
+        <v>24130</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>441</v>
+        <v>341</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -5943,46 +5961,46 @@
         <v>16</v>
       </c>
       <c r="D78" s="7">
-        <v>22996</v>
+        <v>18955</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="H78" s="7">
         <v>6</v>
       </c>
       <c r="I78" s="7">
-        <v>5417</v>
+        <v>4526</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>445</v>
+        <v>105</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>446</v>
+        <v>277</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="M78" s="7">
         <v>22</v>
       </c>
       <c r="N78" s="7">
-        <v>28413</v>
+        <v>23481</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -5994,46 +6012,46 @@
         <v>16</v>
       </c>
       <c r="D79" s="7">
-        <v>18545</v>
+        <v>15740</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>452</v>
+        <v>340</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="H79" s="7">
         <v>8</v>
       </c>
       <c r="I79" s="7">
-        <v>7957</v>
+        <v>6494</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="M79" s="7">
         <v>24</v>
       </c>
       <c r="N79" s="7">
-        <v>26502</v>
+        <v>22234</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -6045,67 +6063,67 @@
         <v>2</v>
       </c>
       <c r="D80" s="7">
-        <v>1928</v>
+        <v>1677</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>125</v>
+        <v>464</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="H80" s="7">
         <v>1</v>
       </c>
       <c r="I80" s="7">
-        <v>1558</v>
+        <v>1161</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="K80" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="M80" s="7">
         <v>3</v>
       </c>
       <c r="N80" s="7">
-        <v>3486</v>
+        <v>2838</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>463</v>
+        <v>245</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>464</v>
+        <v>397</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C81" s="7">
         <v>1</v>
       </c>
       <c r="D81" s="7">
-        <v>1796</v>
+        <v>1554</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>53</v>
+        <v>469</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>466</v>
+        <v>54</v>
       </c>
       <c r="H81" s="7">
         <v>0</v>
@@ -6120,55 +6138,55 @@
         <v>35</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="M81" s="7">
         <v>1</v>
       </c>
       <c r="N81" s="7">
-        <v>1796</v>
+        <v>1554</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>468</v>
+        <v>240</v>
       </c>
       <c r="P81" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C82" s="7">
         <v>4</v>
       </c>
       <c r="D82" s="7">
-        <v>4947</v>
+        <v>4196</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>184</v>
+        <v>473</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="H82" s="7">
         <v>5</v>
       </c>
       <c r="I82" s="7">
-        <v>5728</v>
+        <v>3755</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>472</v>
+        <v>353</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>473</v>
+        <v>354</v>
       </c>
       <c r="L82" s="7" t="s">
         <v>474</v>
@@ -6177,13 +6195,13 @@
         <v>9</v>
       </c>
       <c r="N82" s="7">
-        <v>10676</v>
+        <v>7951</v>
       </c>
       <c r="O82" s="7" t="s">
         <v>475</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>50</v>
+        <v>295</v>
       </c>
       <c r="Q82" s="7" t="s">
         <v>476</v>
@@ -6198,46 +6216,46 @@
         <v>301</v>
       </c>
       <c r="D83" s="7">
-        <v>325194</v>
+        <v>275865</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H83" s="7">
         <v>137</v>
       </c>
       <c r="I83" s="7">
-        <v>122310</v>
+        <v>99825</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M83" s="7">
         <v>438</v>
       </c>
       <c r="N83" s="7">
-        <v>447504</v>
+        <v>375689</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P83" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -6251,7 +6269,7 @@
         <v>338</v>
       </c>
       <c r="D84" s="7">
-        <v>332365</v>
+        <v>345748</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>477</v>
@@ -6260,37 +6278,37 @@
         <v>478</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>74</v>
+        <v>479</v>
       </c>
       <c r="H84" s="7">
         <v>521</v>
       </c>
       <c r="I84" s="7">
-        <v>471221</v>
+        <v>548737</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M84" s="7">
         <v>859</v>
       </c>
       <c r="N84" s="7">
-        <v>803586</v>
+        <v>894485</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="P84" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -6302,43 +6320,43 @@
         <v>681</v>
       </c>
       <c r="D85" s="7">
-        <v>663446</v>
+        <v>637828</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H85" s="7">
         <v>396</v>
       </c>
       <c r="I85" s="7">
-        <v>287385</v>
+        <v>262191</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M85" s="7">
         <v>1077</v>
       </c>
       <c r="N85" s="7">
-        <v>950831</v>
+        <v>900019</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="P85" s="7" t="s">
-        <v>492</v>
+        <v>27</v>
       </c>
       <c r="Q85" s="7" t="s">
         <v>493</v>
@@ -6353,7 +6371,7 @@
         <v>315</v>
       </c>
       <c r="D86" s="7">
-        <v>343022</v>
+        <v>326676</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>494</v>
@@ -6368,7 +6386,7 @@
         <v>172</v>
       </c>
       <c r="I86" s="7">
-        <v>141885</v>
+        <v>129762</v>
       </c>
       <c r="J86" s="7" t="s">
         <v>497</v>
@@ -6383,7 +6401,7 @@
         <v>487</v>
       </c>
       <c r="N86" s="7">
-        <v>484907</v>
+        <v>456438</v>
       </c>
       <c r="O86" s="7" t="s">
         <v>500</v>
@@ -6404,7 +6422,7 @@
         <v>100</v>
       </c>
       <c r="D87" s="7">
-        <v>116129</v>
+        <v>116683</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>503</v>
@@ -6419,31 +6437,31 @@
         <v>43</v>
       </c>
       <c r="I87" s="7">
-        <v>31324</v>
+        <v>28964</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>329</v>
+        <v>506</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>445</v>
+        <v>508</v>
       </c>
       <c r="M87" s="7">
         <v>143</v>
       </c>
       <c r="N87" s="7">
-        <v>147453</v>
+        <v>145647</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="P87" s="7" t="s">
-        <v>508</v>
+        <v>348</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>396</v>
+        <v>510</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
@@ -6455,46 +6473,46 @@
         <v>59</v>
       </c>
       <c r="D88" s="7">
-        <v>65450</v>
+        <v>61524</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>288</v>
+        <v>451</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>509</v>
+        <v>60</v>
       </c>
       <c r="H88" s="7">
         <v>30</v>
       </c>
       <c r="I88" s="7">
-        <v>27377</v>
+        <v>25222</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K88" s="7" t="s">
-        <v>113</v>
+        <v>512</v>
       </c>
       <c r="L88" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="M88" s="7">
         <v>89</v>
       </c>
       <c r="N88" s="7">
-        <v>92827</v>
+        <v>86746</v>
       </c>
       <c r="O88" s="7" t="s">
-        <v>512</v>
+        <v>425</v>
       </c>
       <c r="P88" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="Q88" s="7" t="s">
-        <v>513</v>
+        <v>476</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
@@ -6506,46 +6524,46 @@
         <v>48</v>
       </c>
       <c r="D89" s="7">
-        <v>55375</v>
+        <v>51811</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>251</v>
+        <v>514</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H89" s="7">
         <v>26</v>
       </c>
       <c r="I89" s="7">
-        <v>23191</v>
+        <v>20863</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K89" s="7" t="s">
-        <v>467</v>
+        <v>183</v>
       </c>
       <c r="L89" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M89" s="7">
         <v>74</v>
       </c>
       <c r="N89" s="7">
-        <v>78566</v>
+        <v>72673</v>
       </c>
       <c r="O89" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="P89" s="7" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="Q89" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
@@ -6557,67 +6575,67 @@
         <v>8</v>
       </c>
       <c r="D90" s="7">
-        <v>5989</v>
+        <v>5554</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>463</v>
+        <v>522</v>
       </c>
       <c r="H90" s="7">
         <v>6</v>
       </c>
       <c r="I90" s="7">
-        <v>4522</v>
+        <v>3933</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>42</v>
+        <v>523</v>
       </c>
       <c r="K90" s="7" t="s">
-        <v>464</v>
+        <v>62</v>
       </c>
       <c r="L90" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="M90" s="7">
         <v>14</v>
       </c>
       <c r="N90" s="7">
-        <v>10511</v>
+        <v>9487</v>
       </c>
       <c r="O90" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="P90" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="Q90" s="7" t="s">
-        <v>56</v>
+        <v>526</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C91" s="7">
         <v>6</v>
       </c>
       <c r="D91" s="7">
-        <v>6731</v>
+        <v>6265</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>121</v>
+        <v>527</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>67</v>
+        <v>528</v>
       </c>
       <c r="H91" s="7">
         <v>0</v>
@@ -6632,73 +6650,73 @@
         <v>35</v>
       </c>
       <c r="L91" s="7" t="s">
-        <v>464</v>
+        <v>521</v>
       </c>
       <c r="M91" s="7">
         <v>6</v>
       </c>
       <c r="N91" s="7">
-        <v>6731</v>
+        <v>6265</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>523</v>
+        <v>241</v>
       </c>
       <c r="P91" s="7" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="Q91" s="7" t="s">
-        <v>69</v>
+        <v>530</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C92" s="7">
         <v>23</v>
       </c>
       <c r="D92" s="7">
-        <v>20377</v>
+        <v>18957</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>461</v>
+        <v>531</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>525</v>
+        <v>56</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>224</v>
+        <v>156</v>
       </c>
       <c r="H92" s="7">
         <v>7</v>
       </c>
       <c r="I92" s="7">
-        <v>6731</v>
+        <v>4696</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>186</v>
+        <v>521</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>527</v>
+        <v>416</v>
       </c>
       <c r="M92" s="7">
         <v>30</v>
       </c>
       <c r="N92" s="7">
-        <v>27108</v>
+        <v>23653</v>
       </c>
       <c r="O92" s="7" t="s">
-        <v>50</v>
+        <v>217</v>
       </c>
       <c r="P92" s="7" t="s">
-        <v>56</v>
+        <v>533</v>
       </c>
       <c r="Q92" s="7" t="s">
-        <v>284</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
@@ -6710,51 +6728,51 @@
         <v>1578</v>
       </c>
       <c r="D93" s="7">
-        <v>1608884</v>
+        <v>1571044</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H93" s="7">
         <v>1201</v>
       </c>
       <c r="I93" s="7">
-        <v>993636</v>
+        <v>1024368</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K93" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L93" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M93" s="7">
         <v>2779</v>
       </c>
       <c r="N93" s="7">
-        <v>2602520</v>
+        <v>2595413</v>
       </c>
       <c r="O93" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P93" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q93" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
